--- a/clan_last_3_wars.xlsx
+++ b/clan_last_3_wars.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,12 +443,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Troféus</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Medalhas</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Decks Usados</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Doações</t>
         </is>
       </c>
     </row>
@@ -459,10 +469,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>7100</v>
+      </c>
+      <c r="C2" t="n">
         <v>3050</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>16</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +488,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>8504</v>
+      </c>
+      <c r="C3" t="n">
         <v>2800</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +507,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>6602</v>
+      </c>
+      <c r="C4" t="n">
         <v>2800</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -498,10 +526,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>7844</v>
+      </c>
+      <c r="C5" t="n">
         <v>2800</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +545,16 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>7157</v>
+      </c>
+      <c r="C6" t="n">
         <v>2750</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -524,10 +564,16 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>8154</v>
+      </c>
+      <c r="C7" t="n">
         <v>2550</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>16</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -537,36 +583,54 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>9291</v>
+      </c>
+      <c r="C8" t="n">
         <v>2500</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>16</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>Flaviok3rp</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>7836</v>
+      </c>
+      <c r="C9" t="n">
         <v>2400</v>
       </c>
-      <c r="C9" t="n">
-        <v>15</v>
+      <c r="D9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Flaviok3rp</t>
+          <t>Kaylane Silva</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>9185</v>
+      </c>
+      <c r="C10" t="n">
         <v>2400</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -576,36 +640,54 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>7895</v>
+      </c>
+      <c r="C11" t="n">
         <v>2400</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cattermol II</t>
+          <t>Ester</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>7540</v>
+      </c>
+      <c r="C12" t="n">
         <v>2400</v>
       </c>
-      <c r="C12" t="n">
-        <v>16</v>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kaylane Silva</t>
+          <t>Cattermol II</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C13" t="n">
         <v>2400</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>16</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -615,10 +697,16 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>8068</v>
+      </c>
+      <c r="C14" t="n">
         <v>2400</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>16</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -628,10 +716,16 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>8044</v>
+      </c>
+      <c r="C15" t="n">
         <v>2350</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -641,10 +735,16 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>6740</v>
+      </c>
+      <c r="C16" t="n">
         <v>2300</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>16</v>
+      </c>
+      <c r="E16" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -654,10 +754,16 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>8092</v>
+      </c>
+      <c r="C17" t="n">
         <v>2300</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>16</v>
+      </c>
+      <c r="E17" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -667,36 +773,54 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>6831</v>
+      </c>
+      <c r="C18" t="n">
         <v>2200</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLDI3R GHOST</t>
+          <t>vitor</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>7401</v>
+      </c>
+      <c r="C19" t="n">
         <v>2100</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>16</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vitor</t>
+          <t>SOLDI3R GHOST</t>
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>2100</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>16</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -706,10 +830,16 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>6505</v>
+      </c>
+      <c r="C21" t="n">
         <v>2100</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -719,9 +849,15 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>7545</v>
+      </c>
+      <c r="C22" t="n">
         <v>1925</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
+        <v>16</v>
+      </c>
+      <c r="E22" t="n">
         <v>16</v>
       </c>
     </row>
@@ -732,36 +868,54 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>7944</v>
+      </c>
+      <c r="C23" t="n">
         <v>1900</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>12</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aspira</t>
+          <t>xadventurer</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>7256</v>
+      </c>
+      <c r="C24" t="n">
         <v>1800</v>
       </c>
-      <c r="C24" t="n">
-        <v>12</v>
+      <c r="D24" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>xadventurer</t>
+          <t>Aspira</t>
         </is>
       </c>
       <c r="B25" t="n">
+        <v>6717</v>
+      </c>
+      <c r="C25" t="n">
         <v>1800</v>
       </c>
-      <c r="C25" t="n">
-        <v>15</v>
+      <c r="D25" t="n">
+        <v>12</v>
+      </c>
+      <c r="E25" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -771,10 +925,16 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>6869</v>
+      </c>
+      <c r="C26" t="n">
         <v>1775</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>14</v>
+      </c>
+      <c r="E26" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="27">
@@ -784,10 +944,16 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>7433</v>
+      </c>
+      <c r="C27" t="n">
         <v>1750</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>12</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -797,10 +963,16 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>8145</v>
+      </c>
+      <c r="C28" t="n">
         <v>1700</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>12</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -810,10 +982,16 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>5212</v>
+      </c>
+      <c r="C29" t="n">
         <v>1600</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>16</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -823,10 +1001,16 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>7569</v>
+      </c>
+      <c r="C30" t="n">
         <v>1550</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>16</v>
+      </c>
+      <c r="E30" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="31">
@@ -836,36 +1020,54 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>8550</v>
+      </c>
+      <c r="C31" t="n">
         <v>1450</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Safe</t>
+          <t>GABRYELL</t>
         </is>
       </c>
       <c r="B32" t="n">
+        <v>8793</v>
+      </c>
+      <c r="C32" t="n">
         <v>1400</v>
       </c>
-      <c r="C32" t="n">
-        <v>12</v>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GABRYELL</t>
+          <t>Safe</t>
         </is>
       </c>
       <c r="B33" t="n">
+        <v>7090</v>
+      </c>
+      <c r="C33" t="n">
         <v>1400</v>
       </c>
-      <c r="C33" t="n">
-        <v>9</v>
+      <c r="D33" t="n">
+        <v>12</v>
+      </c>
+      <c r="E33" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -875,10 +1077,16 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>7672</v>
+      </c>
+      <c r="C34" t="n">
         <v>1350</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>12</v>
+      </c>
+      <c r="E34" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="35">
@@ -888,10 +1096,16 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C35" t="n">
         <v>1325</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>12</v>
+      </c>
+      <c r="E35" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -901,10 +1115,16 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>5178</v>
+      </c>
+      <c r="C36" t="n">
         <v>1300</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -914,10 +1134,16 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>5911</v>
+      </c>
+      <c r="C37" t="n">
         <v>1250</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>12</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -927,10 +1153,16 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>5164</v>
+      </c>
+      <c r="C38" t="n">
         <v>1200</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -940,10 +1172,16 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>6205</v>
+      </c>
+      <c r="C39" t="n">
         <v>1150</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>12</v>
+      </c>
+      <c r="E39" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -953,10 +1191,16 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>6003</v>
+      </c>
+      <c r="C40" t="n">
         <v>1000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="41">
@@ -966,10 +1210,16 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>6503</v>
+      </c>
+      <c r="C41" t="n">
         <v>1000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -979,10 +1229,16 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>7034</v>
+      </c>
+      <c r="C42" t="n">
         <v>800</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>6</v>
+      </c>
+      <c r="E42" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="43">
@@ -992,36 +1248,54 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>7177</v>
+      </c>
+      <c r="C43" t="n">
         <v>750</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GustxvinHD</t>
+          <t>quellmita65</t>
         </is>
       </c>
       <c r="B44" t="n">
+        <v>6529</v>
+      </c>
+      <c r="C44" t="n">
         <v>700</v>
       </c>
-      <c r="C44" t="n">
-        <v>4</v>
+      <c r="D44" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>quellmita65</t>
+          <t>GustxvinHD</t>
         </is>
       </c>
       <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
         <v>700</v>
       </c>
-      <c r="C45" t="n">
-        <v>6</v>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1031,49 +1305,73 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
         <v>700</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>abertosauro</t>
+          <t>ASHURA</t>
         </is>
       </c>
       <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
         <v>500</v>
       </c>
-      <c r="C47" t="n">
-        <v>5</v>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ASHURA</t>
+          <t>DESMONTROIVDD</t>
         </is>
       </c>
       <c r="B48" t="n">
+        <v>7269</v>
+      </c>
+      <c r="C48" t="n">
         <v>500</v>
       </c>
-      <c r="C48" t="n">
-        <v>4</v>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DESMONTROIVDD</t>
+          <t>abertosauro</t>
         </is>
       </c>
       <c r="B49" t="n">
+        <v>5766</v>
+      </c>
+      <c r="C49" t="n">
         <v>500</v>
       </c>
-      <c r="C49" t="n">
-        <v>6</v>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1083,10 +1381,16 @@
         </is>
       </c>
       <c r="B50" t="n">
+        <v>7196</v>
+      </c>
+      <c r="C50" t="n">
         <v>450</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="51">
@@ -1096,10 +1400,16 @@
         </is>
       </c>
       <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
         <v>200</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1109,10 +1419,16 @@
         </is>
       </c>
       <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
         <v>200</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1122,10 +1438,16 @@
         </is>
       </c>
       <c r="B53" t="n">
+        <v>8147</v>
+      </c>
+      <c r="C53" t="n">
         <v>100</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="54">
@@ -1135,22 +1457,34 @@
         </is>
       </c>
       <c r="B54" t="n">
+        <v>5852</v>
+      </c>
+      <c r="C54" t="n">
         <v>100</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>pawn</t>
+          <t>Vinicius</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1161,48 +1495,72 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>8628</v>
       </c>
       <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Vinicius</t>
+          <t>pawn</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lipe4720j</t>
+          <t>Joaos1ilva_016</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Douze</t>
+          <t>mateus_zn</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1218,43 +1576,67 @@
       <c r="C60" t="n">
         <v>0</v>
       </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mateus_zn</t>
+          <t>Douze</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Joaos1ilva_016</t>
+          <t>Lipe4720j</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>rafael</t>
+          <t>Flogoral</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1270,43 +1652,67 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Flogoral</t>
+          <t>Zé</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>luca</t>
+          <t>『bb』Kindï ♥️</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>negueba</t>
+          <t>TOSTA</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1322,43 +1728,67 @@
       <c r="C68" t="n">
         <v>0</v>
       </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TOSTA</t>
+          <t>negueba</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>『bb』Kindï ♥️</t>
+          <t>rafael</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Zé</t>
+          <t>luca</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1374,6 +1804,12 @@
       <c r="C72" t="n">
         <v>0</v>
       </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1382,9 +1818,15 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>5244</v>
       </c>
       <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,7 +1841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1415,12 +1857,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Troféus</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Medalhas</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Decks Usados</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Doações</t>
         </is>
       </c>
     </row>
@@ -1431,10 +1883,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>6529</v>
+      </c>
+      <c r="C2" t="n">
         <v>3000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>16</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1444,10 +1902,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>7401</v>
+      </c>
+      <c r="C3" t="n">
         <v>2900</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1457,23 +1921,35 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>7157</v>
+      </c>
+      <c r="C4" t="n">
         <v>2650</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lipe souza</t>
+          <t>⚔️ROGÉRIO⚔️</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>8504</v>
+      </c>
+      <c r="C5" t="n">
         <v>2600</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -1483,23 +1959,35 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>6740</v>
+      </c>
+      <c r="C6" t="n">
         <v>2600</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>⚔️ROGÉRIO⚔️</t>
+          <t>lipe souza</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>6602</v>
+      </c>
+      <c r="C7" t="n">
         <v>2600</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>16</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1509,10 +1997,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>7895</v>
+      </c>
+      <c r="C8" t="n">
         <v>2600</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>16</v>
+      </c>
+      <c r="E8" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1522,75 +2016,111 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>7844</v>
+      </c>
+      <c r="C9" t="n">
         <v>2600</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>jv.amaral</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>6503</v>
+      </c>
+      <c r="C10" t="n">
         <v>2500</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jv.amaral</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>7944</v>
+      </c>
+      <c r="C11" t="n">
         <v>2500</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Ester</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>7540</v>
+      </c>
+      <c r="C12" t="n">
         <v>2500</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>16</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Newson</t>
+          <t>Ney Bichão</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>7433</v>
+      </c>
+      <c r="C13" t="n">
         <v>2450</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>16</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ney Bichão</t>
+          <t>Newson</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>7100</v>
+      </c>
+      <c r="C14" t="n">
         <v>2450</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>16</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1600,10 +2130,16 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>8092</v>
+      </c>
+      <c r="C15" t="n">
         <v>2400</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1613,10 +2149,16 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
         <v>2250</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>16</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1626,10 +2168,16 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>9185</v>
+      </c>
+      <c r="C17" t="n">
         <v>2200</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>14</v>
+      </c>
+      <c r="E17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -1639,36 +2187,54 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>8044</v>
+      </c>
+      <c r="C18" t="n">
         <v>2100</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EZÓDIA</t>
+          <t>vtavares</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>8550</v>
+      </c>
+      <c r="C19" t="n">
         <v>2100</v>
       </c>
-      <c r="C19" t="n">
-        <v>16</v>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vtavares</t>
+          <t>EZÓDIA</t>
         </is>
       </c>
       <c r="B20" t="n">
+        <v>9291</v>
+      </c>
+      <c r="C20" t="n">
         <v>2100</v>
       </c>
-      <c r="C20" t="n">
-        <v>12</v>
+      <c r="D20" t="n">
+        <v>16</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1678,10 +2244,16 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
         <v>2050</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>16</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1691,36 +2263,54 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>7836</v>
+      </c>
+      <c r="C22" t="n">
         <v>2000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>13</v>
+      </c>
+      <c r="E22" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cattermol II</t>
+          <t>BalaNoAlvaro</t>
         </is>
       </c>
       <c r="B23" t="n">
+        <v>6831</v>
+      </c>
+      <c r="C23" t="n">
         <v>2000</v>
       </c>
-      <c r="C23" t="n">
-        <v>12</v>
+      <c r="D23" t="n">
+        <v>15</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BalaNoAlvaro</t>
+          <t>Cattermol II</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C24" t="n">
         <v>2000</v>
       </c>
-      <c r="C24" t="n">
-        <v>15</v>
+      <c r="D24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1730,10 +2320,16 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>6869</v>
+      </c>
+      <c r="C25" t="n">
         <v>1900</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>15</v>
+      </c>
+      <c r="E25" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -1743,10 +2339,16 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>5212</v>
+      </c>
+      <c r="C26" t="n">
         <v>1900</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>16</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1756,10 +2358,16 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>7569</v>
+      </c>
+      <c r="C27" t="n">
         <v>1800</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>12</v>
+      </c>
+      <c r="E27" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -1769,10 +2377,16 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>8145</v>
+      </c>
+      <c r="C28" t="n">
         <v>1650</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>12</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1782,10 +2396,16 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>1600</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>11</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1795,10 +2415,16 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>8154</v>
+      </c>
+      <c r="C30" t="n">
         <v>1500</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>11</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1808,10 +2434,16 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>6505</v>
+      </c>
+      <c r="C31" t="n">
         <v>1500</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>12</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1821,10 +2453,16 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>1500</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>12</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1834,10 +2472,16 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>7256</v>
+      </c>
+      <c r="C33" t="n">
         <v>1200</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="34">
@@ -1847,36 +2491,54 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>8793</v>
+      </c>
+      <c r="C34" t="n">
         <v>1050</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>7</v>
+      </c>
+      <c r="E34" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>alan_444</t>
+          <t>JB♧♤</t>
         </is>
       </c>
       <c r="B35" t="n">
+        <v>7672</v>
+      </c>
+      <c r="C35" t="n">
         <v>900</v>
       </c>
-      <c r="C35" t="n">
-        <v>7</v>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JB♧♤</t>
+          <t>alan_444</t>
         </is>
       </c>
       <c r="B36" t="n">
+        <v>7177</v>
+      </c>
+      <c r="C36" t="n">
         <v>900</v>
       </c>
-      <c r="C36" t="n">
-        <v>9</v>
+      <c r="D36" t="n">
+        <v>7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1886,10 +2548,16 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
         <v>700</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1899,10 +2567,16 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>600</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1912,75 +2586,111 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>8068</v>
+      </c>
+      <c r="C39" t="n">
         <v>500</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RUAN</t>
+          <t>TOSTA</t>
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
         <v>400</v>
       </c>
-      <c r="C40" t="n">
-        <v>3</v>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TOSTA</t>
+          <t>Zé</t>
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>400</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>perdido</t>
+          <t>pawn</t>
         </is>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
         <v>400</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Zé</t>
+          <t>RUAN</t>
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
         <v>400</v>
       </c>
-      <c r="C43" t="n">
-        <v>4</v>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>pawn</t>
+          <t>perdido</t>
         </is>
       </c>
       <c r="B44" t="n">
+        <v>5911</v>
+      </c>
+      <c r="C44" t="n">
         <v>400</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>4</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1990,113 +2700,167 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
         <v>200</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Arth#gmc.exe</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>6003</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jeison k</t>
+          <t>dudin x sosal</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>7196</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>lfmoro</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>5852</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>francekkj171</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>5852</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>yan 244</t>
+          <t>carril</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>7545</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Diogo</t>
+          <t>JUSTSX</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>cremoso</t>
+          <t>VIGO</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Yasmim</t>
+          <t>《pedrogames¤4k》</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2112,810 +2876,1188 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>《pedrogames¤4k》</t>
+          <t>Yasmim</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VIGO</t>
+          <t>cremoso</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JUSTSX</t>
+          <t>Diogo</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Darkiowa</t>
+          <t>yan 244</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ERFAN</t>
+          <t>francekkj171</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>K カミロ・アナ</t>
+          <t>lfmoro</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>biel</t>
+          <t>Jeison k</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>papai:)</t>
+          <t>Arth#gmc.exe</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Thalles 14</t>
+          <t>biel</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>marcola do 15</t>
+          <t>K カミロ・アナ</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>x_yuri_x</t>
+          <t>ERFAN</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BOB♧</t>
+          <t>Darkiowa</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>lendary</t>
+          <t>♡《Carlos》♡</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>dudin x sosal</t>
+          <t>Clasher</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Fábio</t>
+          <t>Saraiva</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Saraiva</t>
+          <t>Fábio</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>8628</v>
       </c>
       <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>lendary</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Clasher</t>
+          <t>BOB♧</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>♡《Carlos》♡</t>
+          <t>x_yuri_x</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>narguile00</t>
+          <t>marcola do 15</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>loud thomazinn</t>
+          <t>Thalles 14</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Gogeta:3</t>
+          <t>papai:)</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>morte súbita</t>
+          <t>narguile00</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>vtr_gabriel</t>
+          <t>loud thomazinn</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BRUXO XP</t>
+          <t>Gogeta:3</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>junior</t>
+          <t>morte súbita</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>¥DE DEUS¥</t>
+          <t>MarugeOss</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MarugeOss</t>
+          <t>Kauã esnaiper</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kauã esnaiper</t>
+          <t>samuel_oliver</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>samuel_oliver</t>
+          <t>Emilio Sour</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Emilio Sour</t>
+          <t>Natsu Akasuna</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Natsu Akasuna</t>
+          <t>BART</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BART</t>
+          <t>sagaz007</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sagaz007</t>
+          <t>TJ</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TJ</t>
+          <t>klebin</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>klebin</t>
+          <t>™UCHIHA MADARA™</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>™UCHIHA MADARA™</t>
+          <t>Vhoizen</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Vhoizen</t>
+          <t>Pato de Pedrin</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Pato de Pedrin</t>
+          <t>vtr_gabriel</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>BRUXO XP</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>kakashi</t>
+          <t>junior</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Andréa</t>
+          <t>¥DE DEUS¥</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MIMA♡</t>
+          <t>muitodaoraa</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>joao</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PICU@O</t>
+          <t>dieguin.fx</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>loira</t>
+          <t>† Hunter king †</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Niell77</t>
+          <t>Gatinho_Nervoso</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>chel</t>
+          <t>Vini SC45</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>davi</t>
+          <t>LUCAS</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>apollo charms</t>
+          <t>éo_loirin</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>&lt;°sr Sheik°&gt;</t>
+          <t>mateus</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Leo</t>
+          <t>rip_indra</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Nux</t>
+          <t>guizinhu</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>tiititititititi</t>
+          <t>yasuke</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>amarok</t>
+          <t>paiva01clash</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>god.br</t>
+          <t>Felipe</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>meu0v0</t>
+          <t>Daviakine</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PEDRO ALVAREZ C</t>
+          <t>dasorte</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>mima</t>
+          <t>/^\¢</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>John Snow</t>
+          <t>custa</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>irineu .G</t>
+          <t>sky_thumbs</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>@joaovsilva_sp</t>
+          <t>Bexey mv</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2931,524 +4073,770 @@
       <c r="C117" t="n">
         <v>0</v>
       </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Bexey mv</t>
+          <t>@joaovsilva_sp</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>sky_thumbs</t>
+          <t>irineu .G</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>custa</t>
+          <t>John Snow</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>/^\¢</t>
+          <t>mima</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>dasorte</t>
+          <t>PEDRO ALVAREZ C</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Daviakine</t>
+          <t>meu0v0</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Felipe</t>
+          <t>god.br</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>paiva01clash</t>
+          <t>amarok</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>yasuke</t>
+          <t>tiititititititi</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>guizinhu</t>
+          <t>Nux</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>rip_indra</t>
+          <t>Leo</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>mateus</t>
+          <t>&lt;°sr Sheik°&gt;</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>éo_loirin</t>
+          <t>apollo charms</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>LUCAS</t>
+          <t>davi</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Vini SC45</t>
+          <t>chel</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Gatinho_Nervoso</t>
+          <t>Niell77</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>† Hunter king †</t>
+          <t>loira</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>dieguin.fx</t>
+          <t>PICU@O</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>joao</t>
+          <t>MIMA♡</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>muitodaoraa</t>
+          <t>Andréa</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>EL.DESTRO E</t>
+          <t>kakashi</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>lk_né_vida?⚡</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ojralves</t>
+          <t>oriel ph</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ω RAFAEL Ω</t>
+          <t>poseidon</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>oriel ph</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Ravask7</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>DRAKEN</t>
+          <t>2C</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>RJack</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Ravask7</t>
+          <t>&lt;David_Sousa&gt;</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2C</t>
+          <t>Miguel</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>RJack</t>
+          <t>Noahz</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>poseidon</t>
+          <t>souza.</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>&lt;David_Sousa&gt;</t>
+          <t>Brawzen</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Miguel</t>
+          <t>porzings00</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>souza.</t>
+          <t>ojralves</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Noahz</t>
+          <t>Ω RAFAEL Ω</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Brawzen</t>
+          <t>DRAKEN</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>porzings00</t>
+          <t>lk_né_vida?⚡</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Douze</t>
+          <t>EL.DESTRO E</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>carril</t>
+          <t>Douze</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3463,7 +4851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3479,12 +4867,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Troféus</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Medalhas</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Decks Usados</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Doações</t>
         </is>
       </c>
     </row>
@@ -3495,10 +4893,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>3050</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>16</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +4912,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>7895</v>
+      </c>
+      <c r="C3" t="n">
         <v>2700</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +4931,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8092</v>
+      </c>
+      <c r="C4" t="n">
         <v>2600</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -3534,36 +4950,54 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>8550</v>
+      </c>
+      <c r="C5" t="n">
         <v>2500</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>⚔️ROGÉRIO⚔️</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>8504</v>
+      </c>
+      <c r="C6" t="n">
         <v>2500</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>⚔️ROGÉRIO⚔️</t>
+          <t>James</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>7944</v>
+      </c>
+      <c r="C7" t="n">
         <v>2500</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>16</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -3573,10 +5007,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>7844</v>
+      </c>
+      <c r="C8" t="n">
         <v>2500</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>16</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -3586,36 +5026,54 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>9185</v>
+      </c>
+      <c r="C9" t="n">
         <v>2450</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vitor</t>
+          <t>SOLDI3R GHOST</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
         <v>2400</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLDI3R GHOST</t>
+          <t>vitor</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>7401</v>
+      </c>
+      <c r="C11" t="n">
         <v>2400</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3625,10 +5083,16 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>7100</v>
+      </c>
+      <c r="C12" t="n">
         <v>2350</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>16</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3638,10 +5102,16 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>6869</v>
+      </c>
+      <c r="C13" t="n">
         <v>2300</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>16</v>
+      </c>
+      <c r="E13" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -3651,10 +5121,16 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
         <v>2250</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3664,10 +5140,16 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>9291</v>
+      </c>
+      <c r="C15" t="n">
         <v>2200</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -3677,23 +5159,35 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>7157</v>
+      </c>
+      <c r="C16" t="n">
         <v>2050</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Flaviok3rp</t>
         </is>
       </c>
       <c r="B17" t="n">
+        <v>7836</v>
+      </c>
+      <c r="C17" t="n">
         <v>2000</v>
       </c>
-      <c r="C17" t="n">
-        <v>14</v>
+      <c r="D17" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="18">
@@ -3703,23 +5197,35 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>6505</v>
+      </c>
+      <c r="C18" t="n">
         <v>2000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>15</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Flaviok3rp</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
         <v>2000</v>
       </c>
-      <c r="C19" t="n">
-        <v>13</v>
+      <c r="D19" t="n">
+        <v>14</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3729,36 +5235,54 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>6602</v>
+      </c>
+      <c r="C20" t="n">
         <v>1800</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>12</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>john snow</t>
+          <t>✌Ctrl+C✌</t>
         </is>
       </c>
       <c r="B21" t="n">
+        <v>8044</v>
+      </c>
+      <c r="C21" t="n">
         <v>1600</v>
       </c>
-      <c r="C21" t="n">
-        <v>11</v>
+      <c r="D21" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>✌Ctrl+C✌</t>
+          <t>john snow</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>8068</v>
+      </c>
+      <c r="C22" t="n">
         <v>1600</v>
       </c>
-      <c r="C22" t="n">
-        <v>16</v>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3768,23 +5292,35 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C23" t="n">
         <v>1600</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Vinicius</t>
+          <t>Ney Bichão</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>7433</v>
+      </c>
+      <c r="C24" t="n">
         <v>1550</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>12</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -3794,23 +5330,35 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
         <v>1550</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>12</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ney Bichão</t>
+          <t>Vinicius</t>
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>1550</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>12</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3820,10 +5368,16 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>7256</v>
+      </c>
+      <c r="C27" t="n">
         <v>1475</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>12</v>
+      </c>
+      <c r="E27" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="28">
@@ -3833,10 +5387,16 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>6831</v>
+      </c>
+      <c r="C28" t="n">
         <v>1450</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>12</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -3846,10 +5406,16 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>7177</v>
+      </c>
+      <c r="C29" t="n">
         <v>1400</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>14</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3859,10 +5425,16 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>6529</v>
+      </c>
+      <c r="C30" t="n">
         <v>1400</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3872,10 +5444,16 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>6503</v>
+      </c>
+      <c r="C31" t="n">
         <v>1300</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>12</v>
+      </c>
+      <c r="E31" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -3885,10 +5463,16 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>7672</v>
+      </c>
+      <c r="C32" t="n">
         <v>1250</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>12</v>
+      </c>
+      <c r="E32" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="33">
@@ -3898,10 +5482,16 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>8793</v>
+      </c>
+      <c r="C33" t="n">
         <v>1200</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="34">
@@ -3911,10 +5501,16 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>7569</v>
+      </c>
+      <c r="C34" t="n">
         <v>1100</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>12</v>
+      </c>
+      <c r="E34" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="35">
@@ -3924,10 +5520,16 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>6740</v>
+      </c>
+      <c r="C35" t="n">
         <v>1025</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="36">
@@ -3937,10 +5539,16 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
         <v>1000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3950,10 +5558,16 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
         <v>950</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>7</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3963,10 +5577,16 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>5212</v>
+      </c>
+      <c r="C38" t="n">
         <v>900</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3976,10 +5596,16 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>8145</v>
+      </c>
+      <c r="C39" t="n">
         <v>800</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>7</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3989,10 +5615,16 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
         <v>650</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4002,10 +5634,16 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>600</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4015,49 +5653,73 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
         <v>550</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ASHURA</t>
+          <t>pawn</t>
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
         <v>500</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sky_thumbs</t>
+          <t>ASHURA</t>
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>500</v>
       </c>
-      <c r="C44" t="n">
-        <v>3</v>
+      <c r="D44" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>pawn</t>
+          <t>sky_thumbs</t>
         </is>
       </c>
       <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
         <v>500</v>
       </c>
-      <c r="C45" t="n">
-        <v>4</v>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4067,10 +5729,16 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
         <v>400</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4080,10 +5748,16 @@
         </is>
       </c>
       <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
         <v>400</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4093,10 +5767,16 @@
         </is>
       </c>
       <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
         <v>350</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4106,74 +5786,110 @@
         </is>
       </c>
       <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
         <v>200</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Darkiowa</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>6003</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ERFAN</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>5852</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>K カミロ・アナ</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>5852</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>biel</t>
+          <t>le copiador</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Diogo</t>
+          <t>Yasmim</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4189,43 +5905,67 @@
       <c r="C55" t="n">
         <v>0</v>
       </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Yasmim</t>
+          <t>Diogo</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>le copiador</t>
+          <t>yan 244</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Arth#gmc.exe</t>
+          <t>francekkj171</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4241,1044 +5981,1530 @@
       <c r="C59" t="n">
         <v>0</v>
       </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>francekkj171</t>
+          <t>Arth#gmc.exe</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>yan 244</t>
+          <t>biel</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Clasher</t>
+          <t>K カミロ・アナ</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>ERFAN</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>x_yuri_x</t>
+          <t>Darkiowa</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>marcola do 15</t>
+          <t>Clasher</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Thalles 14</t>
+          <t>x_yuri_x</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>papai:)</t>
+          <t>marcola do 15</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>narguile00</t>
+          <t>Thalles 14</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>loud thomazinn</t>
+          <t>papai:)</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Gogeta:3</t>
+          <t>narguile00</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>morte súbita</t>
+          <t>loud thomazinn</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MarugeOss</t>
+          <t>Gogeta:3</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Kauã esnaiper</t>
+          <t>morte súbita</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>samuel_oliver</t>
+          <t>MarugeOss</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Emilio Sour</t>
+          <t>Kauã esnaiper</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Natsu Akasuna</t>
+          <t>samuel_oliver</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BART</t>
+          <t>Emilio Sour</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MIMA♡</t>
+          <t>Natsu Akasuna</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>BART</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PICU@O</t>
+          <t>sagaz007</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>loira</t>
+          <t>TJ</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Niell77</t>
+          <t>Vhoizen</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>chel</t>
+          <t>Pato de Pedrin</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>davi</t>
+          <t>vtr_gabriel</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>apollo charms</t>
+          <t>BRUXO XP</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;°sr Sheik°&gt;</t>
+          <t>¥DE DEUS¥</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Leo</t>
+          <t>muitodaoraa</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Nux</t>
+          <t>joao</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tiititititititi</t>
+          <t>dieguin.fx</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>amarok</t>
+          <t>† Hunter king †</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>god.br</t>
+          <t>Gatinho_Nervoso</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>meu0v0</t>
+          <t>Vini SC45</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PEDRO ALVAREZ C</t>
+          <t>LUCAS</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>mima</t>
+          <t>éo_loirin</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>John Snow</t>
+          <t>mateus</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>irineu .G</t>
+          <t>rip_indra</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>@joaovsilva_sp</t>
+          <t>guizinhu</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>baraodadroga</t>
+          <t>yasuke</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bexey mv</t>
+          <t>paiva01clash</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>custa</t>
+          <t>Felipe</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>/^\¢</t>
+          <t>Ester</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>7540</v>
       </c>
       <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>dasorte</t>
+          <t>Daviakine</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Daviakine</t>
+          <t>dasorte</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Ester</t>
+          <t>/^\¢</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Felipe</t>
+          <t>custa</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>paiva01clash</t>
+          <t>Bexey mv</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>yasuke</t>
+          <t>baraodadroga</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>guizinhu</t>
+          <t>@joaovsilva_sp</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>rip_indra</t>
+          <t>irineu .G</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>mateus</t>
+          <t>John Snow</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>éo_loirin</t>
+          <t>mima</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>LUCAS</t>
+          <t>PEDRO ALVAREZ C</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Vini SC45</t>
+          <t>meu0v0</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Gatinho_Nervoso</t>
+          <t>god.br</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>† Hunter king †</t>
+          <t>amarok</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>dieguin.fx</t>
+          <t>tiititititititi</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>joao</t>
+          <t>Nux</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>muitodaoraa</t>
+          <t>Leo</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>¥DE DEUS¥</t>
+          <t>&lt;°sr Sheik°&gt;</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BRUXO XP</t>
+          <t>apollo charms</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>vtr_gabriel</t>
+          <t>davi</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Pato de Pedrin</t>
+          <t>chel</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Vhoizen</t>
+          <t>Niell77</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TJ</t>
+          <t>loira</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>sagaz007</t>
+          <t>PICU@O</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Andréa</t>
+          <t>MIMA♡</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>kakashi</t>
+          <t>Andréa</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>oriel ph</t>
+          <t>kakashi</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>oriel ph</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2C</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>RJack</t>
+          <t>2C</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>&lt;David_Sousa&gt;</t>
+          <t>RJack</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Miguel</t>
+          <t>&lt;David_Sousa&gt;</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Noahz</t>
+          <t>Miguel</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>souza.</t>
+          <t>Noahz</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Brawzen</t>
+          <t>souza.</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>porzings00</t>
+          <t>Brawzen</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ojralves</t>
+          <t>porzings00</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>ojralves</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5294,6 +7520,12 @@
       <c r="C140" t="n">
         <v>0</v>
       </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5305,6 +7537,12 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
         <v>0</v>
       </c>
     </row>
